--- a/z Money/Paypal Payment Details Today 16Sep24.xlsx
+++ b/z Money/Paypal Payment Details Today 16Sep24.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -60,9 +60,6 @@
     <t>26/09/24, 11:08 p.m.</t>
   </si>
   <si>
-    <t>Completedtooltip1</t>
-  </si>
-  <si>
     <t>Dollars</t>
   </si>
   <si>
@@ -73,13 +70,44 @@
   </si>
   <si>
     <t>Net %</t>
+  </si>
+  <si>
+    <t>Trasnfered from PayPal</t>
+  </si>
+  <si>
+    <t>INVOICE#001</t>
+  </si>
+  <si>
+    <t>INVOICE#002</t>
+  </si>
+  <si>
+    <t>INVOICE#003</t>
+  </si>
+  <si>
+    <t>Got in Bank</t>
+  </si>
+  <si>
+    <t>28/09/24, 04:35 a.m.</t>
+  </si>
+  <si>
+    <t>$1 = ₹80.66</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Overall%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +119,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,10 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -159,6 +210,18 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,16 +535,19 @@
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="10" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +563,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -506,15 +572,15 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -525,31 +591,31 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11">
         <v>500</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
         <v>26.31</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="11">
         <v>473.69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="6">
+      <c r="I2" s="3"/>
+      <c r="J2" s="5">
         <f>F2/E2*100</f>
         <v>5.2620000000000005</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f>G2/E2*100</f>
         <v>94.738</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -560,31 +626,31 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11">
         <v>750</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="12">
         <v>39.29</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="11">
         <v>710.71</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:K6" si="0">F3/E3*100</f>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J6" si="0">F3/E3*100</f>
         <v>5.2386666666666661</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f t="shared" ref="K3:K6" si="1">G3/E3*100</f>
         <v>94.76133333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -595,80 +661,223 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11">
         <v>1750</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="12">
         <v>91.21</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="11">
         <v>1658.79</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="6">
+      <c r="I4" s="3"/>
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>5.2119999999999997</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" si="1"/>
         <v>94.787999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="7">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="13">
         <f>SUM(E2:E4)</f>
         <v>3000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="14">
         <f t="shared" ref="F5:G5" si="2">SUM(F2:F4)</f>
         <v>156.81</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="13">
         <f t="shared" si="2"/>
         <v>2843.19</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="9">
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>5.2270000000000003</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>94.77300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="7">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="15">
         <f>E5*83.64</f>
         <v>250920</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="16">
         <f t="shared" ref="F6:G6" si="3">F5*83.64</f>
         <v>13115.588400000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="18">
         <f t="shared" si="3"/>
         <v>237804.41159999999</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="9">
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>5.2270000000000003</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>94.772999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="13">
+        <f>G8/83.64</f>
+        <v>2741.9154710664752</v>
+      </c>
+      <c r="F8" s="14">
+        <f>G5-E8</f>
+        <v>101.27452893352483</v>
+      </c>
+      <c r="G8" s="15">
+        <v>229333.81</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="8">
+        <f>G10/E5*100</f>
+        <v>91.397182368882511</v>
+      </c>
+      <c r="N8" s="11">
+        <f>E5*M8%</f>
+        <v>2741.9154710664752</v>
+      </c>
+      <c r="O8" s="19">
+        <f>E6*M8%</f>
+        <v>229333.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="8">
+        <f>(F10+F5)/E5*100</f>
+        <v>8.6028176311174942</v>
+      </c>
+      <c r="N9" s="11">
+        <f>E5*M9%</f>
+        <v>258.08452893352484</v>
+      </c>
+      <c r="O9" s="20">
+        <f>E6*M9%</f>
+        <v>21586.190000000017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2843.19</v>
+      </c>
+      <c r="F10" s="14">
+        <f>E10-G10</f>
+        <v>101.27452893352483</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2741.9154710664752</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" ref="J10" si="4">F10/E10*100</f>
+        <v>3.5620035570441946</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" ref="K10" si="5">G10/E10*100</f>
+        <v>96.437996442955807</v>
+      </c>
+      <c r="N10" s="13">
+        <f>SUM(N8:N9)</f>
+        <v>3000</v>
+      </c>
+      <c r="O10" s="15">
+        <f>SUM(O8:O9)</f>
+        <v>250920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="15">
+        <f>E10*83.64</f>
+        <v>237804.41159999999</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" ref="F11:G11" si="6">F10*83.64</f>
+        <v>8470.6016000000163</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="6"/>
+        <v>229333.81</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" ref="J11" si="7">F11/E11*100</f>
+        <v>3.5620035570441946</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11" si="8">G11/E11*100</f>
+        <v>96.437996442955821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="10"/>
+      <c r="N12" s="7" t="b">
+        <f>N9=F5+F10</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="7" t="b">
+        <f>O9=F6+F11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/z Money/Paypal Payment Details Today 16Sep24.xlsx
+++ b/z Money/Paypal Payment Details Today 16Sep24.xlsx
@@ -84,9 +84,6 @@
     <t>INVOICE#003</t>
   </si>
   <si>
-    <t>Got in Bank</t>
-  </si>
-  <si>
     <t>28/09/24, 04:35 a.m.</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Overall%</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; Got in Bank &lt;&lt;&lt;</t>
   </si>
 </sst>
 </file>
@@ -104,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -212,16 +212,19 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +530,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +742,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -786,16 +789,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="13">
         <v>2843.19</v>
@@ -829,23 +832,23 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="15">
         <f>E10*83.64</f>
         <v>237804.41159999999</v>
       </c>
       <c r="F11" s="16">
-        <f t="shared" ref="F11:G11" si="6">F10*83.64</f>
+        <f t="shared" ref="F11:G13" si="6">F10*83.64</f>
         <v>8470.6016000000163</v>
       </c>
       <c r="G11" s="17">
@@ -876,8 +879,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13" s="7" t="s">
-        <v>22</v>
+      <c r="G13" s="17">
+        <v>229333.81</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/z Money/Paypal Payment Details Today 16Sep24.xlsx
+++ b/z Money/Paypal Payment Details Today 16Sep24.xlsx
@@ -15,8 +15,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Amazon Basics Book Holder Stand
+- Zeb-Comfort Wired USB Mouse
+- Meditations by Marcus Aurelius
+- The Miracle Morning
+- Pigeon Amaze Plus Electric Kettle
+- Asbob 3 in 1 steam inhaler vapourisers
+- Bajaj Majesty DX-11 1000W Dry Iron</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +137,39 @@
   </si>
   <si>
     <t>&lt;&lt;&lt; Got in Bank &lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Thing</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>PPF</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FD 2</t>
+  </si>
+  <si>
+    <t>SHRIDI</t>
+  </si>
+  <si>
+    <t>Home + Personal</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -107,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +219,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,6 +309,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,11 +621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -848,7 +944,7 @@
         <v>237804.41159999999</v>
       </c>
       <c r="F11" s="16">
-        <f t="shared" ref="F11:G13" si="6">F10*83.64</f>
+        <f t="shared" ref="F11:G11" si="6">F10*83.64</f>
         <v>8470.6016000000163</v>
       </c>
       <c r="G11" s="17">
@@ -886,9 +982,134 @@
         <v>26</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="24">
+        <v>150000</v>
+      </c>
+      <c r="C17" s="25">
+        <f>G13-B17</f>
+        <v>79333.81</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="24">
+        <v>25000</v>
+      </c>
+      <c r="C18" s="25">
+        <f>C17-B18</f>
+        <v>54333.81</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="24">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="25">
+        <f>C18-B19</f>
+        <v>44333.81</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="24">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="25">
+        <f>C19-B20</f>
+        <v>34333.81</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="24">
+        <v>1821</v>
+      </c>
+      <c r="C21" s="25">
+        <f>C20-B21</f>
+        <v>32512.809999999998</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/z Money/Paypal Payment Details Today 16Sep24.xlsx
+++ b/z Money/Paypal Payment Details Today 16Sep24.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -166,10 +166,13 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>FIXED</t>
-  </si>
-  <si>
-    <t>DONE</t>
+    <t>FIXED - DONE</t>
+  </si>
+  <si>
+    <t>Home Needs</t>
+  </si>
+  <si>
+    <t>DONE - CC</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -321,6 +324,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +631,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1012,7 @@
         <f>G13-B17</f>
         <v>79333.81</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1022,7 +1027,7 @@
         <f>C17-B18</f>
         <v>54333.81</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1037,7 +1042,7 @@
         <f>C18-B19</f>
         <v>44333.81</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1052,7 +1057,7 @@
         <f>C19-B20</f>
         <v>34333.81</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1067,14 +1072,21 @@
         <f>C20-B21</f>
         <v>32512.809999999998</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="24">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="25">
+        <f>C21-B22</f>
+        <v>27512.809999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>

--- a/z Money/Paypal Payment Details Today 16Sep24.xlsx
+++ b/z Money/Paypal Payment Details Today 16Sep24.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp Mapping" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -51,12 +51,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Reference: Book 5; Page: 40B; Ref: (Full);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Watch + Wallet.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -169,21 +217,196 @@
     <t>FIXED - DONE</t>
   </si>
   <si>
+    <t>DONE - CC</t>
+  </si>
+  <si>
+    <t>Home + Personal Needs</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Family Needs</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Materialistic</t>
+  </si>
+  <si>
+    <t>1.5K</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Grandma</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Myself</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>Cloths</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>Daily ware</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Amazon Basics Book Holder Stand</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>Zeb-Comfort Wired USB Mouse</t>
+  </si>
+  <si>
+    <t>Meditations by Marcus Aurelius</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>The Miracle Morning</t>
+  </si>
+  <si>
+    <t>Pigeon Amaze Plus Electric Kettle</t>
+  </si>
+  <si>
+    <t>Asbob 3 in 1 steam inhaler vapourisers</t>
+  </si>
+  <si>
+    <t>Bajaj Majesty DX-11 1000W Dry Iron</t>
+  </si>
+  <si>
+    <t>Card Holder</t>
+  </si>
+  <si>
+    <t>Wheels Rolling Watch</t>
+  </si>
+  <si>
+    <t>Nalli</t>
+  </si>
+  <si>
+    <t>Saree + Blouse</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Saravana</t>
+  </si>
+  <si>
+    <t>Pancha + Towel</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>Broadway</t>
+  </si>
+  <si>
+    <t>Towel</t>
+  </si>
+  <si>
+    <t>Blouse + Skirt</t>
+  </si>
+  <si>
+    <t>Inners + Handkerchief</t>
+  </si>
+  <si>
+    <t>2+6</t>
+  </si>
+  <si>
+    <t>T-Shirts</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>3+5</t>
+  </si>
+  <si>
     <t>Home Needs</t>
   </si>
   <si>
-    <t>DONE - CC</t>
+    <t>Dinning Table</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Rat Catcher</t>
+  </si>
+  <si>
+    <t>0.5K</t>
+  </si>
+  <si>
+    <t>Storage Cupboard</t>
+  </si>
+  <si>
+    <t>2.5K</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Cotton Blend Table Cloth</t>
+  </si>
+  <si>
+    <t>Dining Table Round Placement Set</t>
+  </si>
+  <si>
+    <t>Dining Table Cover</t>
+  </si>
+  <si>
+    <t>Black Spray Paint</t>
+  </si>
+  <si>
+    <t>LED Light for PC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +459,35 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +498,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -286,10 +541,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -326,8 +582,23 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,8 +901,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1295,7 @@
         <v>25000</v>
       </c>
       <c r="C18" s="25">
-        <f>C17-B18</f>
+        <f t="shared" ref="C18:C23" si="9">C17-B18</f>
         <v>54333.81</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -1039,7 +1310,7 @@
         <v>10000</v>
       </c>
       <c r="C19" s="25">
-        <f>C18-B19</f>
+        <f t="shared" si="9"/>
         <v>44333.81</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -1054,7 +1325,7 @@
         <v>10000</v>
       </c>
       <c r="C20" s="25">
-        <f>C19-B20</f>
+        <f t="shared" si="9"/>
         <v>34333.81</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -1069,29 +1340,44 @@
         <v>1821</v>
       </c>
       <c r="C21" s="25">
-        <f>C20-B21</f>
+        <f t="shared" si="9"/>
         <v>32512.809999999998</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="24">
+        <f>2856+2135</f>
+        <v>4991</v>
+      </c>
+      <c r="C22" s="25">
+        <f t="shared" si="9"/>
+        <v>27521.809999999998</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="24">
-        <v>5000</v>
-      </c>
-      <c r="C22" s="25">
-        <f>C21-B22</f>
-        <v>27512.809999999998</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="24">
+        <f>150+1299+841</f>
+        <v>2290</v>
+      </c>
+      <c r="C23" s="25">
+        <f t="shared" si="9"/>
+        <v>25231.809999999998</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -1127,12 +1413,1166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="28">
+        <f>K1</f>
+        <v>1420</v>
+      </c>
+      <c r="G1" s="28">
+        <f>D1-F1</f>
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="33">
+        <v>1</v>
+      </c>
+      <c r="K1" s="29">
+        <f>SUMIF(U:U,J1,R:R)</f>
+        <v>1420</v>
+      </c>
+      <c r="M1" s="31">
+        <v>45565</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>199</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1">
+        <v>2024</v>
+      </c>
+      <c r="U1" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="28">
+        <f t="shared" ref="F2:F7" si="0">K2</f>
+        <v>901</v>
+      </c>
+      <c r="G2" s="28">
+        <f t="shared" ref="G2:G8" si="1">D2-F2</f>
+        <v>599</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="33">
+        <v>2</v>
+      </c>
+      <c r="K2" s="29">
+        <f t="shared" ref="K2:K7" si="2">SUMIF(U:U,J2,R:R)</f>
+        <v>901</v>
+      </c>
+      <c r="M2" s="31">
+        <v>45565</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>99</v>
+      </c>
+      <c r="S2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2">
+        <v>2024</v>
+      </c>
+      <c r="U2" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="G3" s="28">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="33">
+        <v>3</v>
+      </c>
+      <c r="K3" s="29">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="M3" s="31">
+        <v>45566</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>98</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3">
+        <v>2024</v>
+      </c>
+      <c r="U3" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="28">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" si="1"/>
+        <v>930</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="33">
+        <v>4</v>
+      </c>
+      <c r="K4" s="29">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="M4" s="31">
+        <v>45566</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>198</v>
+      </c>
+      <c r="S4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4">
+        <v>2024</v>
+      </c>
+      <c r="U4" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="28">
+        <f t="shared" si="0"/>
+        <v>3823</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" si="1"/>
+        <v>-2823</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="33">
+        <v>5</v>
+      </c>
+      <c r="K5" s="29">
+        <f t="shared" si="2"/>
+        <v>3823</v>
+      </c>
+      <c r="M5" s="31">
+        <v>45567</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>449</v>
+      </c>
+      <c r="S5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5">
+        <v>2024</v>
+      </c>
+      <c r="U5" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="28">
+        <v>4000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="33">
+        <v>6</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="31">
+        <v>45567</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>279</v>
+      </c>
+      <c r="S6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6">
+        <v>2024</v>
+      </c>
+      <c r="U6" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="33">
+        <v>7</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="M7" s="31">
+        <v>45567</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>499</v>
+      </c>
+      <c r="S7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7">
+        <v>2024</v>
+      </c>
+      <c r="U7" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="28">
+        <f>SUM(D1:D7)</f>
+        <v>12000</v>
+      </c>
+      <c r="F8" s="28">
+        <f>SUM(F1:F7)</f>
+        <v>8054</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="1"/>
+        <v>3946</v>
+      </c>
+      <c r="M8" s="31">
+        <v>45569</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8">
+        <v>821</v>
+      </c>
+      <c r="S8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8">
+        <v>2024</v>
+      </c>
+      <c r="U8" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M9" s="31">
+        <v>45569</v>
+      </c>
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9">
+        <v>765</v>
+      </c>
+      <c r="S9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9">
+        <v>2024</v>
+      </c>
+      <c r="U9" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M10" s="31">
+        <v>45569</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10">
+        <v>420</v>
+      </c>
+      <c r="S10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10">
+        <v>2024</v>
+      </c>
+      <c r="U10" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M11" s="31">
+        <v>45569</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11">
+        <v>420</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11">
+        <v>2024</v>
+      </c>
+      <c r="U11" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M12" s="31">
+        <v>45570</v>
+      </c>
+      <c r="N12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12">
+        <v>2024</v>
+      </c>
+      <c r="U12" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" ref="F13:F16" si="3">K13</f>
+        <v>488</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" ref="G13:G17" si="4">D13-F13</f>
+        <v>512</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="33">
+        <v>8</v>
+      </c>
+      <c r="K13" s="29">
+        <f t="shared" ref="K13:K16" si="5">SUMIF(U:U,J13,R:R)</f>
+        <v>488</v>
+      </c>
+      <c r="M13" s="31">
+        <v>45570</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13">
+        <v>2024</v>
+      </c>
+      <c r="U13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="28">
+        <v>500</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="33">
+        <v>9</v>
+      </c>
+      <c r="K14" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="31">
+        <v>45570</v>
+      </c>
+      <c r="N14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>120</v>
+      </c>
+      <c r="S14" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14">
+        <v>2024</v>
+      </c>
+      <c r="U14" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="28">
+        <v>2500</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="33">
+        <v>10</v>
+      </c>
+      <c r="K15" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="31">
+        <v>45570</v>
+      </c>
+      <c r="N15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15">
+        <f>350+225</f>
+        <v>575</v>
+      </c>
+      <c r="S15" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15">
+        <v>2024</v>
+      </c>
+      <c r="U15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="33">
+        <v>11</v>
+      </c>
+      <c r="K16" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="31">
+        <v>45570</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16">
+        <f>230+120</f>
+        <v>350</v>
+      </c>
+      <c r="S16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16">
+        <v>2024</v>
+      </c>
+      <c r="U16" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="28">
+        <f>SUM(D13:D16)</f>
+        <v>5000</v>
+      </c>
+      <c r="F17" s="28">
+        <f>SUM(F13:F16)</f>
+        <v>488</v>
+      </c>
+      <c r="G17" s="28">
+        <f>D17-F17</f>
+        <v>4512</v>
+      </c>
+      <c r="M17" s="31">
+        <v>45570</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>800</v>
+      </c>
+      <c r="S17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17">
+        <v>2024</v>
+      </c>
+      <c r="U17" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M18" s="31">
+        <v>45571</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>150</v>
+      </c>
+      <c r="S18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18">
+        <v>2024</v>
+      </c>
+      <c r="U18" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M19" s="31">
+        <v>45571</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1299</v>
+      </c>
+      <c r="S19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19">
+        <v>2024</v>
+      </c>
+      <c r="U19" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M20" s="32">
+        <v>45571</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>1</v>
+      </c>
+      <c r="R20" s="30">
+        <v>159</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="30">
+        <v>2024</v>
+      </c>
+      <c r="U20" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M21" s="32">
+        <v>45571</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>1</v>
+      </c>
+      <c r="R21" s="30">
+        <v>178</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="30">
+        <v>2024</v>
+      </c>
+      <c r="U21" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M22" s="32">
+        <v>45571</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>1</v>
+      </c>
+      <c r="R22" s="30">
+        <v>169</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" s="30">
+        <v>2024</v>
+      </c>
+      <c r="U22" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M23" s="32">
+        <v>45571</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>1</v>
+      </c>
+      <c r="R23" s="30">
+        <v>141</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="30">
+        <v>2024</v>
+      </c>
+      <c r="U23" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M24" s="32">
+        <v>45571</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>1</v>
+      </c>
+      <c r="R24" s="30">
+        <v>194</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" s="30">
+        <v>2024</v>
+      </c>
+      <c r="U24" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M25" s="31"/>
+      <c r="U25" s="33"/>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M26" s="31"/>
+      <c r="U26" s="33"/>
+    </row>
+  </sheetData>
+  <sortState ref="M1:U26">
+    <sortCondition ref="M1:M26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/z Money/Paypal Payment Details Today 16Sep24.xlsx
+++ b/z Money/Paypal Payment Details Today 16Sep24.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Exp Mapping" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exp Mapping'!$W$1:$AB$62</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -99,12 +102,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cotton Blend Table Cloth
+Dining Table Round Placement Set
+Dining Table Cover
+Black Spray Paint
+LED Light for PC
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -395,6 +427,195 @@
   </si>
   <si>
     <t>LED Light for PC</t>
+  </si>
+  <si>
+    <t>Night pants</t>
+  </si>
+  <si>
+    <t>Table + Drain Ness</t>
+  </si>
+  <si>
+    <t>Stitching</t>
+  </si>
+  <si>
+    <t>Big Basket Ironing</t>
+  </si>
+  <si>
+    <t>2024-40</t>
+  </si>
+  <si>
+    <t>Samosa Sundal</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Book Kindle</t>
+  </si>
+  <si>
+    <t>Buns</t>
+  </si>
+  <si>
+    <t>Icecream</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Sambar Idli</t>
+  </si>
+  <si>
+    <t>Amazon Electricals</t>
+  </si>
+  <si>
+    <t>Amazon Electricals 2</t>
+  </si>
+  <si>
+    <t>Redemption Fee</t>
+  </si>
+  <si>
+    <t>Trimmer Fix</t>
+  </si>
+  <si>
+    <t>Metro card recharge</t>
+  </si>
+  <si>
+    <t>Train ticket</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>Mom Saree Blouse</t>
+  </si>
+  <si>
+    <t>Grandma Saree Blouse</t>
+  </si>
+  <si>
+    <t>Pancha Towel</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Sugarcane juice</t>
+  </si>
+  <si>
+    <t>Handkerchief</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Tray</t>
+  </si>
+  <si>
+    <t>Clothes Towels</t>
+  </si>
+  <si>
+    <t>Innerwear</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>2024-41</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>HDFCCC</t>
+  </si>
+  <si>
+    <t>Moonmart</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Dry Fruits Salt</t>
+  </si>
+  <si>
+    <t>ORS</t>
+  </si>
+  <si>
+    <t>Bonda Bajji</t>
+  </si>
+  <si>
+    <t>Auto - Movie</t>
+  </si>
+  <si>
+    <t>Kova</t>
+  </si>
+  <si>
+    <t>Sambar vada</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Swelling balls</t>
+  </si>
+  <si>
+    <t>Maida</t>
+  </si>
+  <si>
+    <t>Tailor</t>
+  </si>
+  <si>
+    <t>Pani Puri</t>
+  </si>
+  <si>
+    <t>Auto - Sai Baba Temple</t>
+  </si>
+  <si>
+    <t>Jaya anna</t>
+  </si>
+  <si>
+    <t>Chole bhature - Sangeetha</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>YearMonth</t>
+  </si>
+  <si>
+    <t>Personal + Ma</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Other Exp</t>
+  </si>
+  <si>
+    <t>MountRoad</t>
+  </si>
+  <si>
+    <t>Trimmer Fix - Philips</t>
   </si>
 </sst>
 </file>
@@ -406,7 +627,7 @@
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,8 +707,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +732,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -596,12 +837,33 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="18" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -901,8 +1163,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1557,7 @@
         <v>25000</v>
       </c>
       <c r="C18" s="25">
-        <f t="shared" ref="C18:C23" si="9">C17-B18</f>
+        <f t="shared" ref="C18:C26" si="9">C17-B18</f>
         <v>54333.81</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -1380,19 +1642,49 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="24">
+        <v>841</v>
+      </c>
+      <c r="C24" s="25">
+        <f t="shared" si="9"/>
+        <v>24390.809999999998</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="24">
+        <v>800</v>
+      </c>
+      <c r="C25" s="25">
+        <f t="shared" si="9"/>
+        <v>23590.809999999998</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="23"/>
+      <c r="A26" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="24">
+        <v>3898</v>
+      </c>
+      <c r="C26" s="25">
+        <f t="shared" si="9"/>
+        <v>19692.809999999998</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
@@ -1413,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,9 +1733,15 @@
     <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1461,11 +1759,11 @@
       </c>
       <c r="F1" s="28">
         <f>K1</f>
-        <v>1420</v>
+        <v>1870</v>
       </c>
       <c r="G1" s="28">
         <f>D1-F1</f>
-        <v>80</v>
+        <v>-370</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
@@ -1478,7 +1776,7 @@
       </c>
       <c r="K1" s="29">
         <f>SUMIF(U:U,J1,R:R)</f>
-        <v>1420</v>
+        <v>1870</v>
       </c>
       <c r="M1" s="31">
         <v>45565</v>
@@ -1507,8 +1805,26 @@
       <c r="U1" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1572,8 +1888,26 @@
       <c r="U2" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2" s="34">
+        <v>45565</v>
+      </c>
+      <c r="X2" s="35">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="Y2" s="36">
+        <v>-150</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1637,8 +1971,26 @@
       <c r="U3" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3" s="34">
+        <v>45565</v>
+      </c>
+      <c r="X3" s="35">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="Y3" s="36">
+        <v>-80</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1702,8 +2054,26 @@
       <c r="U4" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4" s="38">
+        <v>45565</v>
+      </c>
+      <c r="X4" s="39">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>-298</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB4" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1721,11 +2091,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>3823</v>
+        <v>4611</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="1"/>
-        <v>-2823</v>
+        <v>-3611</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -1738,7 +2108,7 @@
       </c>
       <c r="K5" s="29">
         <f t="shared" si="2"/>
-        <v>3823</v>
+        <v>4611</v>
       </c>
       <c r="M5" s="31">
         <v>45567</v>
@@ -1767,8 +2137,26 @@
       <c r="U5" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W5" s="38">
+        <v>45566</v>
+      </c>
+      <c r="X5" s="39">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>-296</v>
+      </c>
+      <c r="Z5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB5" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1832,8 +2220,26 @@
       <c r="U6" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6" s="34">
+        <v>45566</v>
+      </c>
+      <c r="X6" s="35">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="Y6" s="36">
+        <v>-29</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1851,11 +2257,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>-80</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -1868,7 +2274,7 @@
       </c>
       <c r="K7" s="29">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="M7" s="31">
         <v>45567</v>
@@ -1897,19 +2303,37 @@
       <c r="U7" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W7" s="34">
+        <v>45566</v>
+      </c>
+      <c r="X7" s="35">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="Y7" s="36">
+        <v>-30</v>
+      </c>
+      <c r="Z7" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA7" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB7" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D8" s="28">
         <f>SUM(D1:D7)</f>
         <v>12000</v>
       </c>
       <c r="F8" s="28">
         <f>SUM(F1:F7)</f>
-        <v>8054</v>
+        <v>9572</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="1"/>
-        <v>3946</v>
+        <v>2428</v>
       </c>
       <c r="M8" s="31">
         <v>45569</v>
@@ -1938,8 +2362,26 @@
       <c r="U8" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W8" s="34">
+        <v>45566</v>
+      </c>
+      <c r="X8" s="35">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="Y8" s="36">
+        <v>-40</v>
+      </c>
+      <c r="Z8" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA8" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB8" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="M9" s="31">
         <v>45569</v>
       </c>
@@ -1967,8 +2409,26 @@
       <c r="U9" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W9" s="34">
+        <v>45566</v>
+      </c>
+      <c r="X9" s="35">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="Y9" s="36">
+        <v>-8</v>
+      </c>
+      <c r="Z9" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA9" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="M10" s="31">
         <v>45569</v>
       </c>
@@ -1996,8 +2456,26 @@
       <c r="U10" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W10" s="34">
+        <v>45566</v>
+      </c>
+      <c r="X10" s="35">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="Y10" s="36">
+        <v>-12</v>
+      </c>
+      <c r="Z10" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="M11" s="31">
         <v>45569</v>
       </c>
@@ -2025,37 +2503,73 @@
       <c r="U11" s="33">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M12" s="31">
-        <v>45570</v>
-      </c>
-      <c r="N12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12">
+      <c r="W11" s="34">
+        <v>45566</v>
+      </c>
+      <c r="X11" s="35">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="Y11" s="36">
+        <v>-200</v>
+      </c>
+      <c r="Z11" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB11" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M12" s="32">
+        <v>45569</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>1</v>
+      </c>
+      <c r="R12" s="30">
+        <v>788</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="30">
         <v>2024</v>
       </c>
       <c r="U12" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="W12" s="38">
+        <v>45567</v>
+      </c>
+      <c r="X12" s="39">
+        <v>0.78125</v>
+      </c>
+      <c r="Y12" s="40">
+        <v>-728</v>
+      </c>
+      <c r="Z12" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -2073,11 +2587,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ref="F13:F16" si="3">K13</f>
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" ref="G13:G17" si="4">D13-F13</f>
-        <v>512</v>
+        <f t="shared" ref="G13:G16" si="4">D13-F13</f>
+        <v>442</v>
       </c>
       <c r="H13" t="s">
         <v>86</v>
@@ -2090,7 +2604,7 @@
       </c>
       <c r="K13" s="29">
         <f t="shared" ref="K13:K16" si="5">SUMIF(U:U,J13,R:R)</f>
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="M13" s="31">
         <v>45570</v>
@@ -2102,7 +2616,7 @@
         <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -2117,10 +2631,28 @@
         <v>2024</v>
       </c>
       <c r="U13" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="W13" s="38">
+        <v>45567</v>
+      </c>
+      <c r="X13" s="39">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="Y13" s="40">
+        <v>-499</v>
+      </c>
+      <c r="Z13" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA13" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB13" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2167,13 +2699,13 @@
         <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
       <c r="R14">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
         <v>62</v>
@@ -2182,10 +2714,28 @@
         <v>2024</v>
       </c>
       <c r="U14" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="W14" s="34">
+        <v>45567</v>
+      </c>
+      <c r="X14" s="35">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="Y14" s="36">
+        <v>-99</v>
+      </c>
+      <c r="Z14" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA14" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB14" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -2229,17 +2779,16 @@
         <v>76</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
       </c>
       <c r="R15">
-        <f>350+225</f>
-        <v>575</v>
+        <v>120</v>
       </c>
       <c r="S15" t="s">
         <v>62</v>
@@ -2248,10 +2797,28 @@
         <v>2024</v>
       </c>
       <c r="U15" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="W15" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X15" s="35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="Y15" s="36">
+        <v>-788</v>
+      </c>
+      <c r="Z15" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB15" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -2295,17 +2862,17 @@
         <v>76</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R16">
-        <f>230+120</f>
-        <v>350</v>
+        <f>350+225</f>
+        <v>575</v>
       </c>
       <c r="S16" t="s">
         <v>62</v>
@@ -2314,21 +2881,39 @@
         <v>2024</v>
       </c>
       <c r="U16" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="W16" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X16" s="35">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Y16" s="36">
+        <v>-200</v>
+      </c>
+      <c r="Z16" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA16" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB16" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D17" s="28">
         <f>SUM(D13:D16)</f>
         <v>5000</v>
       </c>
       <c r="F17" s="28">
         <f>SUM(F13:F16)</f>
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="G17" s="28">
         <f>D17-F17</f>
-        <v>4512</v>
+        <v>4442</v>
       </c>
       <c r="M17" s="31">
         <v>45570</v>
@@ -2337,16 +2922,17 @@
         <v>76</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P17" t="s">
         <v>39</v>
       </c>
-      <c r="Q17">
-        <v>4</v>
+      <c r="Q17" t="s">
+        <v>80</v>
       </c>
       <c r="R17">
-        <v>800</v>
+        <f>230+120</f>
+        <v>350</v>
       </c>
       <c r="S17" t="s">
         <v>62</v>
@@ -2355,27 +2941,45 @@
         <v>2024</v>
       </c>
       <c r="U17" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="W17" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X17" s="35">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Y17" s="36">
+        <v>-30</v>
+      </c>
+      <c r="Z17" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA17" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="4:28" x14ac:dyDescent="0.25">
       <c r="M18" s="31">
-        <v>45571</v>
+        <v>45570</v>
       </c>
       <c r="N18" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="P18" t="s">
         <v>39</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="S18" t="s">
         <v>62</v>
@@ -2384,10 +2988,28 @@
         <v>2024</v>
       </c>
       <c r="U18" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="W18" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X18" s="35">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="Y18" s="36">
+        <v>-50</v>
+      </c>
+      <c r="Z18" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA18" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB18" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28" x14ac:dyDescent="0.25">
       <c r="M19" s="31">
         <v>45571</v>
       </c>
@@ -2395,7 +3017,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s">
         <v>39</v>
@@ -2404,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="R19">
-        <v>1299</v>
+        <v>150</v>
       </c>
       <c r="S19" t="s">
         <v>62</v>
@@ -2413,39 +3035,75 @@
         <v>2024</v>
       </c>
       <c r="U19" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="M20" s="32">
+        <v>4</v>
+      </c>
+      <c r="W19" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X19" s="35">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="Y19" s="36">
+        <v>-10</v>
+      </c>
+      <c r="Z19" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA19" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB19" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="M20" s="31">
         <v>45571</v>
       </c>
-      <c r="N20" s="30" t="s">
+      <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="30">
+      <c r="O20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20">
         <v>1</v>
       </c>
-      <c r="R20" s="30">
-        <v>159</v>
-      </c>
-      <c r="S20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="T20" s="30">
+      <c r="R20">
+        <v>1299</v>
+      </c>
+      <c r="S20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20">
         <v>2024</v>
       </c>
       <c r="U20" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W20" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X20" s="35">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="Y20" s="36">
+        <v>-20</v>
+      </c>
+      <c r="Z20" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB20" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="4:28" x14ac:dyDescent="0.25">
       <c r="M21" s="32">
         <v>45571</v>
       </c>
@@ -2453,7 +3111,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P21" s="30" t="s">
         <v>61</v>
@@ -2462,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="30">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="S21" s="30" t="s">
         <v>62</v>
@@ -2471,10 +3129,28 @@
         <v>2024</v>
       </c>
       <c r="U21" s="33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="W21" s="38">
+        <v>45569</v>
+      </c>
+      <c r="X21" s="39">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="Y21" s="40">
+        <v>-765</v>
+      </c>
+      <c r="Z21" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA21" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB21" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="4:28" x14ac:dyDescent="0.25">
       <c r="M22" s="32">
         <v>45571</v>
       </c>
@@ -2482,7 +3158,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P22" s="30" t="s">
         <v>61</v>
@@ -2491,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="30">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="S22" s="30" t="s">
         <v>62</v>
@@ -2502,8 +3178,26 @@
       <c r="U22" s="33">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W22" s="38">
+        <v>45569</v>
+      </c>
+      <c r="X22" s="39">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="Y22" s="40">
+        <v>-821</v>
+      </c>
+      <c r="Z22" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA22" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB22" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="4:28" x14ac:dyDescent="0.25">
       <c r="M23" s="32">
         <v>45571</v>
       </c>
@@ -2511,7 +3205,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="30" t="s">
         <v>61</v>
@@ -2520,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="30">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="S23" s="30" t="s">
         <v>62</v>
@@ -2531,8 +3225,26 @@
       <c r="U23" s="33">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W23" s="38">
+        <v>45569</v>
+      </c>
+      <c r="X23" s="39">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="Y23" s="40">
+        <v>-840</v>
+      </c>
+      <c r="Z23" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA23" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB23" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="4:28" x14ac:dyDescent="0.25">
       <c r="M24" s="32">
         <v>45571</v>
       </c>
@@ -2540,16 +3252,16 @@
         <v>56</v>
       </c>
       <c r="O24" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="30">
         <v>1</v>
       </c>
       <c r="R24" s="30">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="S24" s="30" t="s">
         <v>62</v>
@@ -2558,20 +3270,925 @@
         <v>2024</v>
       </c>
       <c r="U24" s="33">
+        <v>8</v>
+      </c>
+      <c r="W24" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X24" s="35">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="Y24" s="36">
+        <v>-95</v>
+      </c>
+      <c r="Z24" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA24" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB24" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="M25" s="32">
+        <v>45571</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>1</v>
+      </c>
+      <c r="R25" s="30">
+        <v>194</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="30">
+        <v>2024</v>
+      </c>
+      <c r="U25" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="M25" s="31"/>
-      <c r="U25" s="33"/>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="M26" s="31"/>
-      <c r="U26" s="33"/>
+      <c r="W25" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X25" s="35">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="Y25" s="36">
+        <v>-25</v>
+      </c>
+      <c r="Z25" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA25" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB25" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="M26" s="31">
+        <v>45574</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>280</v>
+      </c>
+      <c r="S26" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26">
+        <v>2024</v>
+      </c>
+      <c r="U26" s="33">
+        <v>7</v>
+      </c>
+      <c r="W26" s="34">
+        <v>45569</v>
+      </c>
+      <c r="X26" s="35">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="Y26" s="36">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA26" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB26" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="M27" s="31">
+        <v>45574</v>
+      </c>
+      <c r="N27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27">
+        <v>2024</v>
+      </c>
+      <c r="U27" s="33">
+        <v>8</v>
+      </c>
+      <c r="W27" s="34">
+        <v>45570</v>
+      </c>
+      <c r="X27" s="35">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="Y27" s="36">
+        <v>-40</v>
+      </c>
+      <c r="Z27" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA27" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB27" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="M28" s="31">
+        <v>45574</v>
+      </c>
+      <c r="N28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>200</v>
+      </c>
+      <c r="S28" t="s">
+        <v>62</v>
+      </c>
+      <c r="T28">
+        <v>2024</v>
+      </c>
+      <c r="U28" s="33">
+        <v>1</v>
+      </c>
+      <c r="W28" s="38">
+        <v>45570</v>
+      </c>
+      <c r="X28" s="39">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="Y28" s="40">
+        <v>-120</v>
+      </c>
+      <c r="Z28" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA28" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB28" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="M29" s="31">
+        <v>45577</v>
+      </c>
+      <c r="N29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>250</v>
+      </c>
+      <c r="S29" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29">
+        <v>2024</v>
+      </c>
+      <c r="U29" s="33">
+        <v>1</v>
+      </c>
+      <c r="W29" s="38">
+        <v>45570</v>
+      </c>
+      <c r="X29" s="39">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="Y29" s="40">
+        <v>-800</v>
+      </c>
+      <c r="Z29" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA29" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB29" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="W30" s="34">
+        <v>45570</v>
+      </c>
+      <c r="X30" s="35">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="Y30" s="36">
+        <v>-90</v>
+      </c>
+      <c r="Z30" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA30" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB30" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="W31" s="38">
+        <v>45570</v>
+      </c>
+      <c r="X31" s="39">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="Y31" s="40">
+        <v>-855</v>
+      </c>
+      <c r="Z31" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA31" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB31" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="W32" s="38">
+        <v>45570</v>
+      </c>
+      <c r="X32" s="39">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="Y32" s="40">
+        <v>-230</v>
+      </c>
+      <c r="Z32" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA32" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB32" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W33" s="38">
+        <v>45571</v>
+      </c>
+      <c r="X33" s="39">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="Y33" s="40">
+        <v>-150</v>
+      </c>
+      <c r="Z33" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA33" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB33" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W34" s="34">
+        <v>45571</v>
+      </c>
+      <c r="X34" s="35">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="Y34" s="36">
+        <v>-10</v>
+      </c>
+      <c r="Z34" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA34" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB34" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W35" s="34">
+        <v>45571</v>
+      </c>
+      <c r="X35" s="35">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="Y35" s="36">
+        <v>-10</v>
+      </c>
+      <c r="Z35" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA35" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB35" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W36" s="38">
+        <v>45571</v>
+      </c>
+      <c r="X36" s="39">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="Y36" s="40">
+        <v>-1299</v>
+      </c>
+      <c r="Z36" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA36" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB36" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W37" s="38">
+        <v>45571</v>
+      </c>
+      <c r="X37" s="39">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="Y37" s="40">
+        <v>-14559</v>
+      </c>
+      <c r="Z37" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA37" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB37" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W38" s="38">
+        <v>45571</v>
+      </c>
+      <c r="X38" s="39">
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="Y38" s="40">
+        <v>-841</v>
+      </c>
+      <c r="Z38" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA38" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB38" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W39" s="34">
+        <v>45572</v>
+      </c>
+      <c r="X39" s="35">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="Y39" s="36">
+        <v>-328</v>
+      </c>
+      <c r="Z39" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA39" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB39" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W40" s="34">
+        <v>45572</v>
+      </c>
+      <c r="X40" s="35">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="Y40" s="36">
+        <v>-32</v>
+      </c>
+      <c r="Z40" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA40" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB40" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W41" s="34">
+        <v>45572</v>
+      </c>
+      <c r="X41" s="35">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="Y41" s="36">
+        <v>-80</v>
+      </c>
+      <c r="Z41" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA41" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB41" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W42" s="34">
+        <v>45572</v>
+      </c>
+      <c r="X42" s="35">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="Y42" s="36">
+        <v>-50</v>
+      </c>
+      <c r="Z42" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA42" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB42" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W43" s="34">
+        <v>45573</v>
+      </c>
+      <c r="X43" s="35">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="Y43" s="36">
+        <v>-80</v>
+      </c>
+      <c r="Z43" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA43" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB43" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W44" s="34">
+        <v>45573</v>
+      </c>
+      <c r="X44" s="35">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="Y44" s="36">
+        <v>-150</v>
+      </c>
+      <c r="Z44" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA44" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB44" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W45" s="34">
+        <v>45574</v>
+      </c>
+      <c r="X45" s="35">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="Y45" s="36">
+        <v>-31</v>
+      </c>
+      <c r="Z45" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA45" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB45" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W46" s="34">
+        <v>45574</v>
+      </c>
+      <c r="X46" s="35">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="Y46" s="36">
+        <v>-50</v>
+      </c>
+      <c r="Z46" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA46" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB46" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W47" s="38">
+        <v>45574</v>
+      </c>
+      <c r="X47" s="39">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="Y47" s="40">
+        <v>-280</v>
+      </c>
+      <c r="Z47" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA47" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB47" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W48" s="34">
+        <v>45574</v>
+      </c>
+      <c r="X48" s="35">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="Y48" s="36">
+        <v>-130</v>
+      </c>
+      <c r="Z48" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA48" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB48" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W49" s="34">
+        <v>45574</v>
+      </c>
+      <c r="X49" s="35">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="Y49" s="36">
+        <v>-20</v>
+      </c>
+      <c r="Z49" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA49" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB49" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W50" s="38">
+        <v>45574</v>
+      </c>
+      <c r="X50" s="39">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Y50" s="40">
+        <v>-70</v>
+      </c>
+      <c r="Z50" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA50" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB50" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W51" s="34">
+        <v>45574</v>
+      </c>
+      <c r="X51" s="35">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="Y51" s="36">
+        <v>-30</v>
+      </c>
+      <c r="Z51" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA51" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB51" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W52" s="34">
+        <v>45574</v>
+      </c>
+      <c r="X52" s="35">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="Y52" s="36">
+        <v>-20</v>
+      </c>
+      <c r="Z52" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA52" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB52" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W53" s="38">
+        <v>45574</v>
+      </c>
+      <c r="X53" s="39">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="Y53" s="40">
+        <v>-200</v>
+      </c>
+      <c r="Z53" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA53" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB53" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W54" s="34">
+        <v>45574</v>
+      </c>
+      <c r="X54" s="35">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="Y54" s="36">
+        <v>-15</v>
+      </c>
+      <c r="Z54" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA54" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB54" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W55" s="34">
+        <v>45575</v>
+      </c>
+      <c r="X55" s="35">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="Y55" s="36">
+        <v>-100</v>
+      </c>
+      <c r="Z55" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA55" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB55" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W56" s="34">
+        <v>45575</v>
+      </c>
+      <c r="X56" s="35">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="Y56" s="36">
+        <v>-90</v>
+      </c>
+      <c r="Z56" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA56" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB56" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W57" s="34">
+        <v>45575</v>
+      </c>
+      <c r="X57" s="35">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="Y57" s="36">
+        <v>-15</v>
+      </c>
+      <c r="Z57" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA57" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB57" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W58" s="34">
+        <v>45576</v>
+      </c>
+      <c r="X58" s="35">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="Y58" s="36">
+        <v>-161</v>
+      </c>
+      <c r="Z58" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA58" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB58" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W59" s="34">
+        <v>45576</v>
+      </c>
+      <c r="X59" s="35">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="Y59" s="36">
+        <v>-50</v>
+      </c>
+      <c r="Z59" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA59" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB59" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W60" s="34">
+        <v>45576</v>
+      </c>
+      <c r="X60" s="35">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="Y60" s="36">
+        <v>-240</v>
+      </c>
+      <c r="Z60" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA60" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB60" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W61" s="34">
+        <v>45576</v>
+      </c>
+      <c r="X61" s="35">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="Y61" s="36">
+        <v>-10</v>
+      </c>
+      <c r="Z61" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA61" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB61" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W62" s="38">
+        <v>45577</v>
+      </c>
+      <c r="X62" s="39">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="Y62" s="40">
+        <v>-250</v>
+      </c>
+      <c r="Z62" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA62" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB62" s="41" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="M1:U26">
-    <sortCondition ref="M1:M26"/>
+  <sortState ref="M1:U62">
+    <sortCondition ref="M1:M62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/z Money/Paypal Payment Details Today 16Sep24.xlsx
+++ b/z Money/Paypal Payment Details Today 16Sep24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -616,6 +616,36 @@
   </si>
   <si>
     <t>Trimmer Fix - Philips</t>
+  </si>
+  <si>
+    <t>Small Wins Everyday</t>
+  </si>
+  <si>
+    <t>XP-PEN Deco Mini 7 Graphics Tablet</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>POCO M6 5G (Orion Blue, 128GB, 4GB)</t>
+  </si>
+  <si>
+    <t>CVK Phone</t>
+  </si>
+  <si>
+    <t>Poco M6</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>2024-11</t>
   </si>
 </sst>
 </file>
@@ -786,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -827,13 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,16 +878,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1163,7 +1178,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1672,7 +1687,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>157</v>
       </c>
       <c r="B26" s="24">
@@ -1707,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,14 +1733,14 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
@@ -1759,26 +1774,26 @@
       </c>
       <c r="F1" s="28">
         <f>K1</f>
-        <v>1870</v>
+        <v>1970</v>
       </c>
       <c r="G1" s="28">
         <f>D1-F1</f>
-        <v>-370</v>
+        <v>-470</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="33">
+        <v>167</v>
+      </c>
+      <c r="J1" s="31">
         <v>1</v>
       </c>
       <c r="K1" s="29">
         <f>SUMIF(U:U,J1,R:R)</f>
-        <v>1870</v>
-      </c>
-      <c r="M1" s="31">
+        <v>1970</v>
+      </c>
+      <c r="M1" s="30">
         <v>45565</v>
       </c>
       <c r="N1" t="s">
@@ -1802,25 +1817,25 @@
       <c r="T1">
         <v>2024</v>
       </c>
-      <c r="U1" s="33">
+      <c r="U1" s="31">
         <v>5</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="40" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1842,26 +1857,26 @@
       </c>
       <c r="F2" s="28">
         <f t="shared" ref="F2:F7" si="0">K2</f>
-        <v>901</v>
+        <v>1051</v>
       </c>
       <c r="G2" s="28">
         <f t="shared" ref="G2:G8" si="1">D2-F2</f>
-        <v>599</v>
+        <v>449</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="33">
+        <v>167</v>
+      </c>
+      <c r="J2" s="31">
         <v>2</v>
       </c>
       <c r="K2" s="29">
         <f t="shared" ref="K2:K7" si="2">SUMIF(U:U,J2,R:R)</f>
-        <v>901</v>
-      </c>
-      <c r="M2" s="31">
+        <v>1051</v>
+      </c>
+      <c r="M2" s="30">
         <v>45565</v>
       </c>
       <c r="N2" t="s">
@@ -1885,25 +1900,25 @@
       <c r="T2">
         <v>2024</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="31">
         <v>5</v>
       </c>
-      <c r="W2" s="34">
+      <c r="W2" s="32">
         <v>45565</v>
       </c>
-      <c r="X2" s="35">
+      <c r="X2" s="33">
         <v>0.80833333333333324</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="Y2" s="34">
         <v>-150</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="AB2" s="35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1925,26 +1940,26 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>1040</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>460</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="33">
+        <v>167</v>
+      </c>
+      <c r="J3" s="31">
         <v>3</v>
       </c>
       <c r="K3" s="29">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="M3" s="31">
+        <v>1040</v>
+      </c>
+      <c r="M3" s="30">
         <v>45566</v>
       </c>
       <c r="N3" t="s">
@@ -1968,25 +1983,25 @@
       <c r="T3">
         <v>2024</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U3" s="31">
         <v>5</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="32">
         <v>45565</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="33">
         <v>0.86805555555555547</v>
       </c>
-      <c r="Y3" s="36">
+      <c r="Y3" s="34">
         <v>-80</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2008,26 +2023,26 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>1164</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" si="1"/>
-        <v>930</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="33">
+        <v>167</v>
+      </c>
+      <c r="J4" s="31">
         <v>4</v>
       </c>
       <c r="K4" s="29">
         <f t="shared" si="2"/>
-        <v>570</v>
-      </c>
-      <c r="M4" s="31">
+        <v>1164</v>
+      </c>
+      <c r="M4" s="30">
         <v>45566</v>
       </c>
       <c r="N4" t="s">
@@ -2051,25 +2066,25 @@
       <c r="T4">
         <v>2024</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="31">
         <v>5</v>
       </c>
-      <c r="W4" s="38">
+      <c r="W4" s="36">
         <v>45565</v>
       </c>
-      <c r="X4" s="39">
+      <c r="X4" s="37">
         <v>0.9159722222222223</v>
       </c>
-      <c r="Y4" s="40">
+      <c r="Y4" s="38">
         <v>-298</v>
       </c>
-      <c r="Z4" s="41" t="s">
+      <c r="Z4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" s="41" t="s">
+      <c r="AA4" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="41" t="s">
+      <c r="AB4" s="39" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2091,26 +2106,26 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>4611</v>
+        <v>7251</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="1"/>
-        <v>-3611</v>
+        <v>-6251</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="33">
+        <v>167</v>
+      </c>
+      <c r="J5" s="31">
         <v>5</v>
       </c>
       <c r="K5" s="29">
         <f t="shared" si="2"/>
-        <v>4611</v>
-      </c>
-      <c r="M5" s="31">
+        <v>7251</v>
+      </c>
+      <c r="M5" s="30">
         <v>45567</v>
       </c>
       <c r="N5" t="s">
@@ -2134,25 +2149,25 @@
       <c r="T5">
         <v>2024</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="31">
         <v>5</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="36">
         <v>45566</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="37">
         <v>0.45763888888888887</v>
       </c>
-      <c r="Y5" s="40">
+      <c r="Y5" s="38">
         <v>-296</v>
       </c>
-      <c r="Z5" s="41" t="s">
+      <c r="Z5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="41" t="s">
+      <c r="AA5" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB5" s="41" t="s">
+      <c r="AB5" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2186,14 +2201,14 @@
       <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="31">
         <v>6</v>
       </c>
       <c r="K6" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <v>45567</v>
       </c>
       <c r="N6" t="s">
@@ -2217,25 +2232,25 @@
       <c r="T6">
         <v>2024</v>
       </c>
-      <c r="U6" s="33">
+      <c r="U6" s="31">
         <v>5</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="32">
         <v>45566</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="33">
         <v>0.4604166666666667</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="Y6" s="34">
         <v>-29</v>
       </c>
-      <c r="Z6" s="37" t="s">
+      <c r="Z6" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" s="37" t="s">
+      <c r="AA6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2267,16 +2282,16 @@
         <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="33">
+        <v>167</v>
+      </c>
+      <c r="J7" s="31">
         <v>7</v>
       </c>
       <c r="K7" s="29">
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <v>45567</v>
       </c>
       <c r="N7" t="s">
@@ -2300,25 +2315,25 @@
       <c r="T7">
         <v>2024</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="31">
         <v>5</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="32">
         <v>45566</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="33">
         <v>0.69652777777777775</v>
       </c>
-      <c r="Y7" s="36">
+      <c r="Y7" s="34">
         <v>-30</v>
       </c>
-      <c r="Z7" s="37" t="s">
+      <c r="Z7" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AA7" s="37" t="s">
+      <c r="AA7" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB7" s="37" t="s">
+      <c r="AB7" s="35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2329,13 +2344,13 @@
       </c>
       <c r="F8" s="28">
         <f>SUM(F1:F7)</f>
-        <v>9572</v>
+        <v>13556</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="1"/>
-        <v>2428</v>
-      </c>
-      <c r="M8" s="31">
+        <v>-1556</v>
+      </c>
+      <c r="M8" s="30">
         <v>45569</v>
       </c>
       <c r="N8" t="s">
@@ -2359,30 +2374,30 @@
       <c r="T8">
         <v>2024</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="31">
         <v>2</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="32">
         <v>45566</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="33">
         <v>0.79861111111111116</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="34">
         <v>-40</v>
       </c>
-      <c r="Z8" s="37" t="s">
+      <c r="Z8" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AA8" s="37" t="s">
+      <c r="AA8" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="37" t="s">
+      <c r="AB8" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M9" s="31">
+      <c r="M9" s="30">
         <v>45569</v>
       </c>
       <c r="N9" t="s">
@@ -2406,30 +2421,30 @@
       <c r="T9">
         <v>2024</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="31">
         <v>1</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="32">
         <v>45566</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9" s="33">
         <v>0.80138888888888893</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="34">
         <v>-8</v>
       </c>
-      <c r="Z9" s="37" t="s">
+      <c r="Z9" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AA9" s="37" t="s">
+      <c r="AA9" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB9" s="37" t="s">
+      <c r="AB9" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M10" s="31">
+      <c r="M10" s="30">
         <v>45569</v>
       </c>
       <c r="N10" t="s">
@@ -2453,30 +2468,30 @@
       <c r="T10">
         <v>2024</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="31">
         <v>3</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="32">
         <v>45566</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="33">
         <v>0.80138888888888893</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="34">
         <v>-12</v>
       </c>
-      <c r="Z10" s="37" t="s">
+      <c r="Z10" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB10" s="37" t="s">
+      <c r="AB10" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>45569</v>
       </c>
       <c r="N11" t="s">
@@ -2500,72 +2515,72 @@
       <c r="T11">
         <v>2024</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="31">
         <v>4</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="32">
         <v>45566</v>
       </c>
-      <c r="X11" s="35">
+      <c r="X11" s="33">
         <v>0.88541666666666663</v>
       </c>
-      <c r="Y11" s="36">
+      <c r="Y11" s="34">
         <v>-200</v>
       </c>
-      <c r="Z11" s="37" t="s">
+      <c r="Z11" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AA11" s="37" t="s">
+      <c r="AA11" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB11" s="37" t="s">
+      <c r="AB11" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M12" s="32">
+      <c r="M12" s="30">
         <v>45569</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" t="s">
         <v>158</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12">
         <v>788</v>
       </c>
-      <c r="S12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="30">
+      <c r="S12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12">
         <v>2024</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="31">
         <v>5</v>
       </c>
-      <c r="W12" s="38">
+      <c r="W12" s="36">
         <v>45567</v>
       </c>
-      <c r="X12" s="39">
+      <c r="X12" s="37">
         <v>0.78125</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Y12" s="38">
         <v>-728</v>
       </c>
-      <c r="Z12" s="41" t="s">
+      <c r="Z12" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="AA12" s="41" t="s">
+      <c r="AA12" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" s="41" t="s">
+      <c r="AB12" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2599,14 +2614,14 @@
       <c r="I13" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="31">
         <v>8</v>
       </c>
       <c r="K13" s="29">
         <f t="shared" ref="K13:K16" si="5">SUMIF(U:U,J13,R:R)</f>
         <v>558</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <v>45570</v>
       </c>
       <c r="N13" t="s">
@@ -2630,25 +2645,25 @@
       <c r="T13">
         <v>2024</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="31">
         <v>2</v>
       </c>
-      <c r="W13" s="38">
+      <c r="W13" s="36">
         <v>45567</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="37">
         <v>0.78472222222222221</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Y13" s="38">
         <v>-499</v>
       </c>
-      <c r="Z13" s="41" t="s">
+      <c r="Z13" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="AA13" s="41" t="s">
+      <c r="AA13" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB13" s="41" t="s">
+      <c r="AB13" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2682,14 +2697,14 @@
       <c r="I14" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="31">
         <v>9</v>
       </c>
       <c r="K14" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <v>45570</v>
       </c>
       <c r="N14" t="s">
@@ -2713,25 +2728,25 @@
       <c r="T14">
         <v>2024</v>
       </c>
-      <c r="U14" s="33">
+      <c r="U14" s="31">
         <v>1</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="32">
         <v>45567</v>
       </c>
-      <c r="X14" s="35">
+      <c r="X14" s="33">
         <v>0.85069444444444453</v>
       </c>
-      <c r="Y14" s="36">
+      <c r="Y14" s="34">
         <v>-99</v>
       </c>
-      <c r="Z14" s="37" t="s">
+      <c r="Z14" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AA14" s="37" t="s">
+      <c r="AA14" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" s="37" t="s">
+      <c r="AB14" s="35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2765,14 +2780,14 @@
       <c r="I15" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="31">
         <v>10</v>
       </c>
       <c r="K15" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>45570</v>
       </c>
       <c r="N15" t="s">
@@ -2796,25 +2811,25 @@
       <c r="T15">
         <v>2024</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="31">
         <v>3</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="32">
         <v>45569</v>
       </c>
-      <c r="X15" s="35">
+      <c r="X15" s="33">
         <v>0.52083333333333337</v>
       </c>
-      <c r="Y15" s="36">
+      <c r="Y15" s="34">
         <v>-788</v>
       </c>
-      <c r="Z15" s="37" t="s">
+      <c r="Z15" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AA15" s="37" t="s">
+      <c r="AA15" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" s="37" t="s">
+      <c r="AB15" s="35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2848,14 +2863,14 @@
       <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="31">
         <v>11</v>
       </c>
       <c r="K16" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="30">
         <v>45570</v>
       </c>
       <c r="N16" t="s">
@@ -2880,29 +2895,29 @@
       <c r="T16">
         <v>2024</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="31">
         <v>1</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="32">
         <v>45569</v>
       </c>
-      <c r="X16" s="35">
+      <c r="X16" s="33">
         <v>0.72499999999999998</v>
       </c>
-      <c r="Y16" s="36">
+      <c r="Y16" s="34">
         <v>-200</v>
       </c>
-      <c r="Z16" s="37" t="s">
+      <c r="Z16" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="AA16" s="37" t="s">
+      <c r="AA16" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB16" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AB16" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D17" s="28">
         <f>SUM(D13:D16)</f>
         <v>5000</v>
@@ -2915,7 +2930,7 @@
         <f>D17-F17</f>
         <v>4442</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="30">
         <v>45570</v>
       </c>
       <c r="N17" t="s">
@@ -2940,30 +2955,30 @@
       <c r="T17">
         <v>2024</v>
       </c>
-      <c r="U17" s="33">
-        <v>5</v>
-      </c>
-      <c r="W17" s="34">
+      <c r="U17" s="31">
+        <v>4</v>
+      </c>
+      <c r="W17" s="32">
         <v>45569</v>
       </c>
-      <c r="X17" s="35">
+      <c r="X17" s="33">
         <v>0.72499999999999998</v>
       </c>
-      <c r="Y17" s="36">
+      <c r="Y17" s="34">
         <v>-30</v>
       </c>
-      <c r="Z17" s="37" t="s">
+      <c r="Z17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="AA17" s="37" t="s">
+      <c r="AA17" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB17" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M18" s="31">
+      <c r="AB17" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M18" s="30">
         <v>45570</v>
       </c>
       <c r="N18" t="s">
@@ -2987,30 +3002,64 @@
       <c r="T18">
         <v>2024</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="31">
         <v>7</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18" s="32">
         <v>45569</v>
       </c>
-      <c r="X18" s="35">
+      <c r="X18" s="33">
         <v>0.75555555555555554</v>
       </c>
-      <c r="Y18" s="36">
+      <c r="Y18" s="34">
         <v>-50</v>
       </c>
-      <c r="Z18" s="37" t="s">
+      <c r="Z18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="37" t="s">
+      <c r="AA18" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB18" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M19" s="31">
+      <c r="AB18" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="28">
+        <v>4000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="28">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="31">
+        <v>12</v>
+      </c>
+      <c r="K19" s="29">
+        <f t="shared" ref="K19" si="6">SUMIF(U:U,J19,R:R)</f>
+        <v>4000</v>
+      </c>
+      <c r="M19" s="30">
         <v>45571</v>
       </c>
       <c r="N19" t="s">
@@ -3034,30 +3083,30 @@
       <c r="T19">
         <v>2024</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="31">
         <v>4</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="32">
         <v>45569</v>
       </c>
-      <c r="X19" s="35">
+      <c r="X19" s="33">
         <v>0.75555555555555554</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="34">
         <v>-10</v>
       </c>
-      <c r="Z19" s="37" t="s">
+      <c r="Z19" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AA19" s="37" t="s">
+      <c r="AA19" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB19" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M20" s="31">
+      <c r="AB19" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M20" s="30">
         <v>45571</v>
       </c>
       <c r="N20" t="s">
@@ -3081,265 +3130,265 @@
       <c r="T20">
         <v>2024</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="31">
         <v>5</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20" s="32">
         <v>45569</v>
       </c>
-      <c r="X20" s="35">
+      <c r="X20" s="33">
         <v>0.78194444444444444</v>
       </c>
-      <c r="Y20" s="36">
+      <c r="Y20" s="34">
         <v>-20</v>
       </c>
-      <c r="Z20" s="37" t="s">
+      <c r="Z20" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AA20" s="37" t="s">
+      <c r="AA20" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB20" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M21" s="32">
+      <c r="AB20" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M21" s="30">
         <v>45571</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" t="s">
         <v>56</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="O21" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="P21" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21">
         <v>159</v>
       </c>
-      <c r="S21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="30">
+      <c r="S21" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21">
         <v>2024</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="31">
         <v>5</v>
       </c>
-      <c r="W21" s="38">
+      <c r="W21" s="36">
         <v>45569</v>
       </c>
-      <c r="X21" s="39">
+      <c r="X21" s="37">
         <v>0.9243055555555556</v>
       </c>
-      <c r="Y21" s="40">
+      <c r="Y21" s="38">
         <v>-765</v>
       </c>
-      <c r="Z21" s="41" t="s">
+      <c r="Z21" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="AA21" s="41" t="s">
+      <c r="AA21" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB21" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M22" s="32">
+      <c r="AB21" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M22" s="30">
         <v>45571</v>
       </c>
-      <c r="N22" s="30" t="s">
+      <c r="N22" t="s">
         <v>56</v>
       </c>
-      <c r="O22" s="30" t="s">
+      <c r="O22" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="P22" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22">
         <v>178</v>
       </c>
-      <c r="S22" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="T22" s="30">
+      <c r="S22" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22">
         <v>2024</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="31">
         <v>8</v>
       </c>
-      <c r="W22" s="38">
+      <c r="W22" s="36">
         <v>45569</v>
       </c>
-      <c r="X22" s="39">
+      <c r="X22" s="37">
         <v>0.92499999999999993</v>
       </c>
-      <c r="Y22" s="40">
+      <c r="Y22" s="38">
         <v>-821</v>
       </c>
-      <c r="Z22" s="41" t="s">
+      <c r="Z22" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="AA22" s="41" t="s">
+      <c r="AA22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB22" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M23" s="32">
+      <c r="AB22" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M23" s="30">
         <v>45571</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" t="s">
         <v>56</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="P23" t="s">
         <v>61</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23">
         <v>169</v>
       </c>
-      <c r="S23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="T23" s="30">
+      <c r="S23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23">
         <v>2024</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="31">
         <v>8</v>
       </c>
-      <c r="W23" s="38">
+      <c r="W23" s="36">
         <v>45569</v>
       </c>
-      <c r="X23" s="39">
+      <c r="X23" s="37">
         <v>0.92499999999999993</v>
       </c>
-      <c r="Y23" s="40">
+      <c r="Y23" s="38">
         <v>-840</v>
       </c>
-      <c r="Z23" s="41" t="s">
+      <c r="Z23" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="AA23" s="41" t="s">
+      <c r="AA23" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB23" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M24" s="32">
+      <c r="AB23" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M24" s="30">
         <v>45571</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="N24" t="s">
         <v>56</v>
       </c>
-      <c r="O24" s="30" t="s">
+      <c r="O24" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P24" s="30" t="s">
+      <c r="P24" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24">
         <v>141</v>
       </c>
-      <c r="S24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="T24" s="30">
+      <c r="S24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24">
         <v>2024</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="31">
         <v>8</v>
       </c>
-      <c r="W24" s="34">
+      <c r="W24" s="32">
         <v>45569</v>
       </c>
-      <c r="X24" s="35">
+      <c r="X24" s="33">
         <v>0.92569444444444438</v>
       </c>
-      <c r="Y24" s="36">
+      <c r="Y24" s="34">
         <v>-95</v>
       </c>
-      <c r="Z24" s="37" t="s">
+      <c r="Z24" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AA24" s="37" t="s">
+      <c r="AA24" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB24" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M25" s="32">
+      <c r="AB24" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M25" s="30">
         <v>45571</v>
       </c>
-      <c r="N25" s="30" t="s">
+      <c r="N25" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="30" t="s">
+      <c r="O25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="30" t="s">
+      <c r="P25" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25">
         <v>194</v>
       </c>
-      <c r="S25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="T25" s="30">
+      <c r="S25" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25">
         <v>2024</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="31">
         <v>5</v>
       </c>
-      <c r="W25" s="34">
+      <c r="W25" s="32">
         <v>45569</v>
       </c>
-      <c r="X25" s="35">
+      <c r="X25" s="33">
         <v>0.92569444444444438</v>
       </c>
-      <c r="Y25" s="36">
+      <c r="Y25" s="34">
         <v>-25</v>
       </c>
-      <c r="Z25" s="37" t="s">
+      <c r="Z25" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="AA25" s="37" t="s">
+      <c r="AA25" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB25" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M26" s="31">
+      <c r="AB25" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M26" s="30">
         <v>45574</v>
       </c>
       <c r="N26" t="s">
@@ -3363,30 +3412,30 @@
       <c r="T26">
         <v>2024</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="31">
         <v>7</v>
       </c>
-      <c r="W26" s="34">
+      <c r="W26" s="32">
         <v>45569</v>
       </c>
-      <c r="X26" s="35">
+      <c r="X26" s="33">
         <v>0.92569444444444438</v>
       </c>
-      <c r="Y26" s="36">
+      <c r="Y26" s="34">
         <v>-200</v>
       </c>
-      <c r="Z26" s="37" t="s">
+      <c r="Z26" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="AA26" s="37" t="s">
+      <c r="AA26" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB26" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M27" s="31">
+      <c r="AB26" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M27" s="30">
         <v>45574</v>
       </c>
       <c r="N27" t="s">
@@ -3410,30 +3459,30 @@
       <c r="T27">
         <v>2024</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="31">
         <v>8</v>
       </c>
-      <c r="W27" s="34">
+      <c r="W27" s="32">
         <v>45570</v>
       </c>
-      <c r="X27" s="35">
+      <c r="X27" s="33">
         <v>0.51874999999999993</v>
       </c>
-      <c r="Y27" s="36">
+      <c r="Y27" s="34">
         <v>-40</v>
       </c>
-      <c r="Z27" s="37" t="s">
+      <c r="Z27" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="AA27" s="37" t="s">
+      <c r="AA27" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB27" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M28" s="31">
+      <c r="AB27" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M28" s="30">
         <v>45574</v>
       </c>
       <c r="N28" t="s">
@@ -3457,30 +3506,30 @@
       <c r="T28">
         <v>2024</v>
       </c>
-      <c r="U28" s="33">
+      <c r="U28" s="31">
         <v>1</v>
       </c>
-      <c r="W28" s="38">
+      <c r="W28" s="36">
         <v>45570</v>
       </c>
-      <c r="X28" s="39">
+      <c r="X28" s="37">
         <v>0.52222222222222225</v>
       </c>
-      <c r="Y28" s="40">
+      <c r="Y28" s="38">
         <v>-120</v>
       </c>
-      <c r="Z28" s="41" t="s">
+      <c r="Z28" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA28" s="41" t="s">
+      <c r="AA28" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB28" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="M29" s="31">
+      <c r="AB28" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M29" s="30">
         <v>45577</v>
       </c>
       <c r="N29" t="s">
@@ -3504,685 +3553,847 @@
       <c r="T29">
         <v>2024</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="31">
         <v>1</v>
       </c>
-      <c r="W29" s="38">
+      <c r="W29" s="36">
         <v>45570</v>
       </c>
-      <c r="X29" s="39">
+      <c r="X29" s="37">
         <v>0.52986111111111112</v>
       </c>
-      <c r="Y29" s="40">
+      <c r="Y29" s="38">
         <v>-800</v>
       </c>
-      <c r="Z29" s="41" t="s">
+      <c r="Z29" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="AA29" s="41" t="s">
+      <c r="AA29" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB29" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="W30" s="34">
+      <c r="AB29" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M30" s="30">
+        <v>45584</v>
+      </c>
+      <c r="N30" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>150</v>
+      </c>
+      <c r="S30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30">
+        <v>2024</v>
+      </c>
+      <c r="U30" s="31">
+        <v>2</v>
+      </c>
+      <c r="W30" s="32">
         <v>45570</v>
       </c>
-      <c r="X30" s="35">
+      <c r="X30" s="33">
         <v>0.53333333333333333</v>
       </c>
-      <c r="Y30" s="36">
+      <c r="Y30" s="34">
         <v>-90</v>
       </c>
-      <c r="Z30" s="37" t="s">
+      <c r="Z30" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="AA30" s="37" t="s">
+      <c r="AA30" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB30" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="W31" s="38">
+      <c r="AB30" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M31" s="30">
+        <v>45584</v>
+      </c>
+      <c r="N31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>100</v>
+      </c>
+      <c r="S31" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31">
+        <v>2024</v>
+      </c>
+      <c r="U31" s="31">
+        <v>1</v>
+      </c>
+      <c r="W31" s="36">
         <v>45570</v>
       </c>
-      <c r="X31" s="39">
+      <c r="X31" s="37">
         <v>0.55833333333333335</v>
       </c>
-      <c r="Y31" s="40">
+      <c r="Y31" s="38">
         <v>-855</v>
       </c>
-      <c r="Z31" s="41" t="s">
+      <c r="Z31" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AA31" s="41" t="s">
+      <c r="AA31" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB31" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="W32" s="38">
+      <c r="AB31" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M32" s="30">
+        <v>45591</v>
+      </c>
+      <c r="N32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>244</v>
+      </c>
+      <c r="S32" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32">
+        <v>2024</v>
+      </c>
+      <c r="U32" s="31">
+        <v>4</v>
+      </c>
+      <c r="W32" s="36">
         <v>45570</v>
       </c>
-      <c r="X32" s="39">
+      <c r="X32" s="37">
         <v>0.57777777777777783</v>
       </c>
-      <c r="Y32" s="40">
+      <c r="Y32" s="38">
         <v>-230</v>
       </c>
-      <c r="Z32" s="41" t="s">
+      <c r="Z32" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AA32" s="41" t="s">
+      <c r="AA32" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AB32" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W33" s="38">
+      <c r="AB32" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M33" s="30">
+        <v>45591</v>
+      </c>
+      <c r="N33" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>2990</v>
+      </c>
+      <c r="S33" t="s">
+        <v>62</v>
+      </c>
+      <c r="T33">
+        <v>2024</v>
+      </c>
+      <c r="U33" s="31">
+        <v>5</v>
+      </c>
+      <c r="W33" s="36">
         <v>45571</v>
       </c>
-      <c r="X33" s="39">
+      <c r="X33" s="37">
         <v>0.61944444444444446</v>
       </c>
-      <c r="Y33" s="40">
+      <c r="Y33" s="38">
         <v>-150</v>
       </c>
-      <c r="Z33" s="41" t="s">
+      <c r="Z33" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="AA33" s="41" t="s">
+      <c r="AA33" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB33" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W34" s="34">
+      <c r="AB33" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M34" s="30">
+        <v>45592</v>
+      </c>
+      <c r="N34" t="s">
+        <v>162</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="P34" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>4000</v>
+      </c>
+      <c r="S34" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34">
+        <v>2024</v>
+      </c>
+      <c r="U34" s="31">
+        <v>12</v>
+      </c>
+      <c r="W34" s="32">
         <v>45571</v>
       </c>
-      <c r="X34" s="35">
+      <c r="X34" s="33">
         <v>0.62708333333333333</v>
       </c>
-      <c r="Y34" s="36">
+      <c r="Y34" s="34">
         <v>-10</v>
       </c>
-      <c r="Z34" s="37" t="s">
+      <c r="Z34" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AA34" s="37" t="s">
+      <c r="AA34" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB34" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W35" s="34">
+      <c r="AB34" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M35" s="30">
+        <v>45598</v>
+      </c>
+      <c r="N35" t="s">
+        <v>168</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P35" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>500</v>
+      </c>
+      <c r="S35" t="s">
+        <v>169</v>
+      </c>
+      <c r="T35">
+        <v>2024</v>
+      </c>
+      <c r="U35" s="31">
+        <v>3</v>
+      </c>
+      <c r="W35" s="32">
         <v>45571</v>
       </c>
-      <c r="X35" s="35">
+      <c r="X35" s="33">
         <v>0.62708333333333333</v>
       </c>
-      <c r="Y35" s="36">
+      <c r="Y35" s="34">
         <v>-10</v>
       </c>
-      <c r="Z35" s="37" t="s">
+      <c r="Z35" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AA35" s="37" t="s">
+      <c r="AA35" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB35" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W36" s="38">
+      <c r="AB35" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W36" s="36">
         <v>45571</v>
       </c>
-      <c r="X36" s="39">
+      <c r="X36" s="37">
         <v>0.62986111111111109</v>
       </c>
-      <c r="Y36" s="40">
+      <c r="Y36" s="38">
         <v>-1299</v>
       </c>
-      <c r="Z36" s="41" t="s">
+      <c r="Z36" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AA36" s="41" t="s">
+      <c r="AA36" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB36" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W37" s="38">
+      <c r="AB36" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W37" s="36">
         <v>45571</v>
       </c>
-      <c r="X37" s="39">
+      <c r="X37" s="37">
         <v>0.76111111111111107</v>
       </c>
-      <c r="Y37" s="40">
+      <c r="Y37" s="38">
         <v>-14559</v>
       </c>
-      <c r="Z37" s="41" t="s">
+      <c r="Z37" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="AA37" s="41" t="s">
+      <c r="AA37" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB37" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W38" s="38">
+      <c r="AB37" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W38" s="36">
         <v>45571</v>
       </c>
-      <c r="X38" s="39">
+      <c r="X38" s="37">
         <v>0.94374999999999998</v>
       </c>
-      <c r="Y38" s="40">
+      <c r="Y38" s="38">
         <v>-841</v>
       </c>
-      <c r="Z38" s="41" t="s">
+      <c r="Z38" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AA38" s="41" t="s">
+      <c r="AA38" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB38" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W39" s="34">
+      <c r="AB38" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W39" s="32">
         <v>45572</v>
       </c>
-      <c r="X39" s="35">
+      <c r="X39" s="33">
         <v>0.82430555555555562</v>
       </c>
-      <c r="Y39" s="36">
+      <c r="Y39" s="34">
         <v>-328</v>
       </c>
-      <c r="Z39" s="37" t="s">
+      <c r="Z39" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AA39" s="37" t="s">
+      <c r="AA39" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB39" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W40" s="34">
+      <c r="AB39" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W40" s="32">
         <v>45572</v>
       </c>
-      <c r="X40" s="35">
+      <c r="X40" s="33">
         <v>0.82430555555555562</v>
       </c>
-      <c r="Y40" s="36">
+      <c r="Y40" s="34">
         <v>-32</v>
       </c>
-      <c r="Z40" s="37" t="s">
+      <c r="Z40" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="AA40" s="37" t="s">
+      <c r="AA40" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB40" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W41" s="34">
+      <c r="AB40" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W41" s="32">
         <v>45572</v>
       </c>
-      <c r="X41" s="35">
+      <c r="X41" s="33">
         <v>0.82708333333333339</v>
       </c>
-      <c r="Y41" s="36">
+      <c r="Y41" s="34">
         <v>-80</v>
       </c>
-      <c r="Z41" s="37" t="s">
+      <c r="Z41" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA41" s="37" t="s">
+      <c r="AA41" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB41" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W42" s="34">
+      <c r="AB41" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W42" s="32">
         <v>45572</v>
       </c>
-      <c r="X42" s="35">
+      <c r="X42" s="33">
         <v>0.82708333333333339</v>
       </c>
-      <c r="Y42" s="36">
+      <c r="Y42" s="34">
         <v>-50</v>
       </c>
-      <c r="Z42" s="37" t="s">
+      <c r="Z42" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AA42" s="37" t="s">
+      <c r="AA42" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB42" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W43" s="34">
+      <c r="AB42" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W43" s="32">
         <v>45573</v>
       </c>
-      <c r="X43" s="35">
+      <c r="X43" s="33">
         <v>6.8749999999999992E-2</v>
       </c>
-      <c r="Y43" s="36">
+      <c r="Y43" s="34">
         <v>-80</v>
       </c>
-      <c r="Z43" s="37" t="s">
+      <c r="Z43" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA43" s="37" t="s">
+      <c r="AA43" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB43" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W44" s="34">
+      <c r="AB43" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W44" s="32">
         <v>45573</v>
       </c>
-      <c r="X44" s="35">
+      <c r="X44" s="33">
         <v>6.8749999999999992E-2</v>
       </c>
-      <c r="Y44" s="36">
+      <c r="Y44" s="34">
         <v>-150</v>
       </c>
-      <c r="Z44" s="37" t="s">
+      <c r="Z44" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="AA44" s="37" t="s">
+      <c r="AA44" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB44" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W45" s="34">
+      <c r="AB44" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W45" s="32">
         <v>45574</v>
       </c>
-      <c r="X45" s="35">
+      <c r="X45" s="33">
         <v>0.47152777777777777</v>
       </c>
-      <c r="Y45" s="36">
+      <c r="Y45" s="34">
         <v>-31</v>
       </c>
-      <c r="Z45" s="37" t="s">
+      <c r="Z45" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="AA45" s="37" t="s">
+      <c r="AA45" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB45" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W46" s="34">
+      <c r="AB45" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W46" s="32">
         <v>45574</v>
       </c>
-      <c r="X46" s="35">
+      <c r="X46" s="33">
         <v>0.77361111111111114</v>
       </c>
-      <c r="Y46" s="36">
+      <c r="Y46" s="34">
         <v>-50</v>
       </c>
-      <c r="Z46" s="37" t="s">
+      <c r="Z46" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AA46" s="37" t="s">
+      <c r="AA46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB46" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W47" s="38">
+      <c r="AB46" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W47" s="36">
         <v>45574</v>
       </c>
-      <c r="X47" s="39">
+      <c r="X47" s="37">
         <v>0.77430555555555547</v>
       </c>
-      <c r="Y47" s="40">
+      <c r="Y47" s="38">
         <v>-280</v>
       </c>
-      <c r="Z47" s="41" t="s">
+      <c r="Z47" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="AA47" s="41" t="s">
+      <c r="AA47" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB47" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W48" s="34">
+      <c r="AB47" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="W48" s="32">
         <v>45574</v>
       </c>
-      <c r="X48" s="35">
+      <c r="X48" s="33">
         <v>0.78194444444444444</v>
       </c>
-      <c r="Y48" s="36">
+      <c r="Y48" s="34">
         <v>-130</v>
       </c>
-      <c r="Z48" s="37" t="s">
+      <c r="Z48" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="AA48" s="37" t="s">
+      <c r="AA48" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB48" s="37" t="s">
+      <c r="AB48" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W49" s="34">
+      <c r="W49" s="32">
         <v>45574</v>
       </c>
-      <c r="X49" s="35">
+      <c r="X49" s="33">
         <v>0.78819444444444453</v>
       </c>
-      <c r="Y49" s="36">
+      <c r="Y49" s="34">
         <v>-20</v>
       </c>
-      <c r="Z49" s="37" t="s">
+      <c r="Z49" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="AA49" s="37" t="s">
+      <c r="AA49" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB49" s="37" t="s">
+      <c r="AB49" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W50" s="38">
+      <c r="W50" s="36">
         <v>45574</v>
       </c>
-      <c r="X50" s="39">
+      <c r="X50" s="37">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Y50" s="40">
+      <c r="Y50" s="38">
         <v>-70</v>
       </c>
-      <c r="Z50" s="41" t="s">
+      <c r="Z50" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AA50" s="41" t="s">
+      <c r="AA50" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB50" s="41" t="s">
+      <c r="AB50" s="39" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W51" s="34">
+      <c r="W51" s="32">
         <v>45574</v>
       </c>
-      <c r="X51" s="35">
+      <c r="X51" s="33">
         <v>0.80138888888888893</v>
       </c>
-      <c r="Y51" s="36">
+      <c r="Y51" s="34">
         <v>-30</v>
       </c>
-      <c r="Z51" s="37" t="s">
+      <c r="Z51" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="AA51" s="37" t="s">
+      <c r="AA51" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB51" s="37" t="s">
+      <c r="AB51" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W52" s="34">
+      <c r="W52" s="32">
         <v>45574</v>
       </c>
-      <c r="X52" s="35">
+      <c r="X52" s="33">
         <v>0.80486111111111114</v>
       </c>
-      <c r="Y52" s="36">
+      <c r="Y52" s="34">
         <v>-20</v>
       </c>
-      <c r="Z52" s="37" t="s">
+      <c r="Z52" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="AA52" s="37" t="s">
+      <c r="AA52" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB52" s="37" t="s">
+      <c r="AB52" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W53" s="38">
+      <c r="W53" s="36">
         <v>45574</v>
       </c>
-      <c r="X53" s="39">
+      <c r="X53" s="37">
         <v>0.82013888888888886</v>
       </c>
-      <c r="Y53" s="40">
+      <c r="Y53" s="38">
         <v>-200</v>
       </c>
-      <c r="Z53" s="41" t="s">
+      <c r="Z53" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AA53" s="41" t="s">
+      <c r="AA53" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB53" s="41" t="s">
+      <c r="AB53" s="39" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W54" s="34">
+      <c r="W54" s="32">
         <v>45574</v>
       </c>
-      <c r="X54" s="35">
+      <c r="X54" s="33">
         <v>0.8208333333333333</v>
       </c>
-      <c r="Y54" s="36">
+      <c r="Y54" s="34">
         <v>-15</v>
       </c>
-      <c r="Z54" s="37" t="s">
+      <c r="Z54" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AA54" s="37" t="s">
+      <c r="AA54" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB54" s="37" t="s">
+      <c r="AB54" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="55" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W55" s="34">
+      <c r="W55" s="32">
         <v>45575</v>
       </c>
-      <c r="X55" s="35">
+      <c r="X55" s="33">
         <v>0.81111111111111101</v>
       </c>
-      <c r="Y55" s="36">
+      <c r="Y55" s="34">
         <v>-100</v>
       </c>
-      <c r="Z55" s="37" t="s">
+      <c r="Z55" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="AA55" s="37" t="s">
+      <c r="AA55" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB55" s="37" t="s">
+      <c r="AB55" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W56" s="34">
+      <c r="W56" s="32">
         <v>45575</v>
       </c>
-      <c r="X56" s="35">
+      <c r="X56" s="33">
         <v>0.87986111111111109</v>
       </c>
-      <c r="Y56" s="36">
+      <c r="Y56" s="34">
         <v>-90</v>
       </c>
-      <c r="Z56" s="37" t="s">
+      <c r="Z56" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="AA56" s="37" t="s">
+      <c r="AA56" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB56" s="37" t="s">
+      <c r="AB56" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W57" s="34">
+      <c r="W57" s="32">
         <v>45575</v>
       </c>
-      <c r="X57" s="35">
+      <c r="X57" s="33">
         <v>0.87986111111111109</v>
       </c>
-      <c r="Y57" s="36">
+      <c r="Y57" s="34">
         <v>-15</v>
       </c>
-      <c r="Z57" s="37" t="s">
+      <c r="Z57" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="AA57" s="37" t="s">
+      <c r="AA57" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB57" s="37" t="s">
+      <c r="AB57" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W58" s="34">
+      <c r="W58" s="32">
         <v>45576</v>
       </c>
-      <c r="X58" s="35">
+      <c r="X58" s="33">
         <v>0.81180555555555556</v>
       </c>
-      <c r="Y58" s="36">
+      <c r="Y58" s="34">
         <v>-161</v>
       </c>
-      <c r="Z58" s="37" t="s">
+      <c r="Z58" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AA58" s="37" t="s">
+      <c r="AA58" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB58" s="37" t="s">
+      <c r="AB58" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W59" s="34">
+      <c r="W59" s="32">
         <v>45576</v>
       </c>
-      <c r="X59" s="35">
+      <c r="X59" s="33">
         <v>0.83472222222222225</v>
       </c>
-      <c r="Y59" s="36">
+      <c r="Y59" s="34">
         <v>-50</v>
       </c>
-      <c r="Z59" s="37" t="s">
+      <c r="Z59" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="AA59" s="37" t="s">
+      <c r="AA59" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB59" s="37" t="s">
+      <c r="AB59" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="60" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W60" s="34">
+      <c r="W60" s="32">
         <v>45576</v>
       </c>
-      <c r="X60" s="35">
+      <c r="X60" s="33">
         <v>0.86597222222222225</v>
       </c>
-      <c r="Y60" s="36">
+      <c r="Y60" s="34">
         <v>-240</v>
       </c>
-      <c r="Z60" s="37" t="s">
+      <c r="Z60" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="AA60" s="37" t="s">
+      <c r="AA60" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB60" s="37" t="s">
+      <c r="AB60" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W61" s="34">
+      <c r="W61" s="32">
         <v>45576</v>
       </c>
-      <c r="X61" s="35">
+      <c r="X61" s="33">
         <v>0.91527777777777775</v>
       </c>
-      <c r="Y61" s="36">
+      <c r="Y61" s="34">
         <v>-10</v>
       </c>
-      <c r="Z61" s="37" t="s">
+      <c r="Z61" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AA61" s="37" t="s">
+      <c r="AA61" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AB61" s="37" t="s">
+      <c r="AB61" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W62" s="38">
+      <c r="W62" s="36">
         <v>45577</v>
       </c>
-      <c r="X62" s="39">
+      <c r="X62" s="37">
         <v>0.74722222222222223</v>
       </c>
-      <c r="Y62" s="40">
+      <c r="Y62" s="38">
         <v>-250</v>
       </c>
-      <c r="Z62" s="41" t="s">
+      <c r="Z62" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AA62" s="41" t="s">
+      <c r="AA62" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AB62" s="41" t="s">
+      <c r="AB62" s="39" t="s">
         <v>62</v>
       </c>
     </row>
